--- a/www/vf5_140213.xlsx
+++ b/www/vf5_140213.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="135">
   <si>
     <t>"Утверждаю"</t>
   </si>
@@ -413,13 +413,22 @@
   </si>
   <si>
     <t xml:space="preserve">_____________________доц. Быкадоров Н.У. </t>
+  </si>
+  <si>
+    <t>12                                                   13</t>
+  </si>
+  <si>
+    <t>15                              16</t>
+  </si>
+  <si>
+    <t>Шаманизм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -616,18 +625,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
@@ -660,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1209,11 +1206,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1673,23 +1683,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1698,61 +1694,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,28 +1711,76 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2124,8 +2122,8 @@
   </sheetPr>
   <dimension ref="A1:AE89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:P13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M67" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2134,15 +2132,15 @@
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="7.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30" style="3" customWidth="1"/>
     <col min="10" max="10" width="20" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="35" style="3" customWidth="1"/>
     <col min="14" max="14" width="19" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" style="3" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" style="3" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" style="3" customWidth="1"/>
@@ -2183,10 +2181,46 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="7"/>
+      <c r="M8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="3">
+        <v>14</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
@@ -2211,10 +2245,10 @@
       <c r="H9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="232"/>
       <c r="K9" s="13" t="s">
         <v>15</v>
       </c>
@@ -2263,11 +2297,11 @@
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="11" spans="1:31" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="234" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="29"/>
@@ -2278,18 +2312,18 @@
       <c r="H11" s="32"/>
       <c r="I11" s="33"/>
       <c r="J11" s="34"/>
-      <c r="K11" s="250" t="s">
+      <c r="K11" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="251"/>
-      <c r="M11" s="242" t="s">
+      <c r="L11" s="249"/>
+      <c r="M11" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="245"/>
-      <c r="O11" s="242" t="s">
+      <c r="N11" s="243"/>
+      <c r="O11" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="243"/>
+      <c r="P11" s="241"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="37"/>
     </row>
@@ -2350,18 +2384,18 @@
       <c r="H13" s="32"/>
       <c r="I13" s="33"/>
       <c r="J13" s="34"/>
-      <c r="K13" s="252" t="s">
+      <c r="K13" s="250" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="253"/>
-      <c r="M13" s="240" t="s">
+      <c r="L13" s="251"/>
+      <c r="M13" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="241"/>
-      <c r="O13" s="240" t="s">
+      <c r="N13" s="239"/>
+      <c r="O13" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="244"/>
+      <c r="P13" s="242"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="37"/>
     </row>
@@ -2478,14 +2512,14 @@
       <c r="L17" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="259" t="s">
+      <c r="M17" s="255" t="s">
         <v>45</v>
       </c>
       <c r="N17" s="260"/>
-      <c r="O17" s="259" t="s">
+      <c r="O17" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="263"/>
+      <c r="P17" s="256"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="37"/>
     </row>
@@ -2560,14 +2594,14 @@
       <c r="L19" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="261" t="s">
+      <c r="M19" s="253" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="262"/>
-      <c r="O19" s="261" t="s">
+      <c r="N19" s="254"/>
+      <c r="O19" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="264"/>
+      <c r="P19" s="257"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="37"/>
     </row>
@@ -2674,18 +2708,18 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="255" t="s">
+      <c r="I23" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="256"/>
+      <c r="J23" s="236"/>
       <c r="K23" s="107"/>
       <c r="L23" s="34"/>
       <c r="M23" s="107"/>
       <c r="N23" s="108"/>
-      <c r="O23" s="250" t="s">
+      <c r="O23" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="265"/>
+      <c r="P23" s="261"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="37"/>
     </row>
@@ -2720,10 +2754,10 @@
       <c r="L24" s="110"/>
       <c r="M24" s="55"/>
       <c r="N24" s="111"/>
-      <c r="O24" s="246" t="s">
+      <c r="O24" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="266"/>
+      <c r="P24" s="262"/>
       <c r="Q24" s="58"/>
       <c r="R24" s="37"/>
     </row>
@@ -2738,10 +2772,10 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="32"/>
-      <c r="I25" s="248" t="s">
+      <c r="I25" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="249"/>
+      <c r="J25" s="247"/>
       <c r="K25" s="99"/>
       <c r="L25" s="98"/>
       <c r="M25" s="112"/>
@@ -2846,20 +2880,20 @@
       <c r="F29" s="29"/>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
-      <c r="I29" s="268" t="s">
+      <c r="I29" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="269"/>
-      <c r="K29" s="242" t="s">
+      <c r="J29" s="265"/>
+      <c r="K29" s="240" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="245"/>
+      <c r="L29" s="243"/>
       <c r="M29" s="124"/>
       <c r="N29" s="125"/>
-      <c r="O29" s="250" t="s">
+      <c r="O29" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="P29" s="265"/>
+      <c r="P29" s="261"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="37"/>
     </row>
@@ -2918,20 +2952,20 @@
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
       <c r="H31" s="32"/>
-      <c r="I31" s="248" t="s">
+      <c r="I31" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="249"/>
-      <c r="K31" s="240" t="s">
+      <c r="J31" s="247"/>
+      <c r="K31" s="238" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="241"/>
+      <c r="L31" s="239"/>
       <c r="M31" s="130"/>
       <c r="N31" s="97"/>
-      <c r="O31" s="252" t="s">
+      <c r="O31" s="250" t="s">
         <v>74</v>
       </c>
-      <c r="P31" s="267"/>
+      <c r="P31" s="263"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="37"/>
     </row>
@@ -3040,14 +3074,14 @@
       <c r="J35" s="34"/>
       <c r="K35" s="124"/>
       <c r="L35" s="138"/>
-      <c r="M35" s="270" t="s">
+      <c r="M35" s="266" t="s">
         <v>80</v>
       </c>
-      <c r="N35" s="271"/>
-      <c r="O35" s="242" t="s">
+      <c r="N35" s="267"/>
+      <c r="O35" s="240" t="s">
         <v>81</v>
       </c>
-      <c r="P35" s="243"/>
+      <c r="P35" s="241"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="37"/>
     </row>
@@ -3106,14 +3140,14 @@
       <c r="J37" s="34"/>
       <c r="K37" s="124"/>
       <c r="L37" s="138"/>
-      <c r="M37" s="272" t="s">
+      <c r="M37" s="268" t="s">
         <v>80</v>
       </c>
-      <c r="N37" s="273"/>
-      <c r="O37" s="240" t="s">
+      <c r="N37" s="269"/>
+      <c r="O37" s="238" t="s">
         <v>81</v>
       </c>
-      <c r="P37" s="244"/>
+      <c r="P37" s="242"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="37"/>
     </row>
@@ -3388,15 +3422,15 @@
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
       <c r="H48" s="32"/>
-      <c r="I48" s="255" t="s">
+      <c r="I48" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="J48" s="256"/>
-      <c r="K48" s="252" t="s">
+      <c r="J48" s="236"/>
+      <c r="K48" s="250" t="s">
         <v>33</v>
       </c>
-      <c r="L48" s="253"/>
-      <c r="M48" s="259" t="s">
+      <c r="L48" s="251"/>
+      <c r="M48" s="255" t="s">
         <v>95</v>
       </c>
       <c r="N48" s="260"/>
@@ -3462,14 +3496,14 @@
       <c r="F50" s="30"/>
       <c r="G50" s="31"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="257" t="s">
+      <c r="I50" s="258" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="258"/>
-      <c r="K50" s="252" t="s">
+      <c r="J50" s="259"/>
+      <c r="K50" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="L50" s="253"/>
+      <c r="L50" s="251"/>
       <c r="M50" s="91" t="s">
         <v>99</v>
       </c>
@@ -3514,10 +3548,10 @@
       <c r="L51" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="M51" s="274" t="s">
+      <c r="M51" s="270" t="s">
         <v>102</v>
       </c>
-      <c r="N51" s="275"/>
+      <c r="N51" s="271"/>
       <c r="O51" s="44"/>
       <c r="P51" s="179"/>
       <c r="Q51" s="58"/>
@@ -3581,19 +3615,19 @@
         <v>104</v>
       </c>
       <c r="I54" s="185"/>
-      <c r="J54" s="239" t="s">
+      <c r="J54" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="K54" s="239"/>
+      <c r="K54" s="237"/>
       <c r="L54" s="37"/>
-      <c r="M54" s="242" t="s">
+      <c r="M54" s="240" t="s">
         <v>105</v>
       </c>
-      <c r="N54" s="245"/>
-      <c r="O54" s="250" t="s">
+      <c r="N54" s="243"/>
+      <c r="O54" s="248" t="s">
         <v>106</v>
       </c>
-      <c r="P54" s="265"/>
+      <c r="P54" s="261"/>
       <c r="Q54" s="64"/>
       <c r="R54" s="50"/>
     </row>
@@ -3623,15 +3657,15 @@
         <v>25</v>
       </c>
       <c r="I55" s="84"/>
-      <c r="J55" s="254" t="s">
+      <c r="J55" s="252" t="s">
         <v>107</v>
       </c>
-      <c r="K55" s="254"/>
+      <c r="K55" s="252"/>
       <c r="L55" s="186"/>
-      <c r="M55" s="246" t="s">
+      <c r="M55" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="N55" s="247"/>
+      <c r="N55" s="245"/>
       <c r="O55" s="187" t="s">
         <v>109</v>
       </c>
@@ -3658,10 +3692,10 @@
       <c r="L56" s="190"/>
       <c r="M56" s="191"/>
       <c r="N56" s="98"/>
-      <c r="O56" s="252" t="s">
+      <c r="O56" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="P56" s="267"/>
+      <c r="P56" s="263"/>
       <c r="Q56" s="36"/>
       <c r="R56" s="37"/>
     </row>
@@ -3764,22 +3798,22 @@
       <c r="F60" s="30"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
-      <c r="I60" s="248" t="s">
+      <c r="I60" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="J60" s="249"/>
-      <c r="K60" s="250" t="s">
+      <c r="J60" s="247"/>
+      <c r="K60" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="L60" s="251"/>
-      <c r="M60" s="242" t="s">
+      <c r="L60" s="249"/>
+      <c r="M60" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="N60" s="245"/>
-      <c r="O60" s="242" t="s">
+      <c r="N60" s="243"/>
+      <c r="O60" s="240" t="s">
         <v>81</v>
       </c>
-      <c r="P60" s="243"/>
+      <c r="P60" s="241"/>
       <c r="Q60" s="36"/>
       <c r="R60" s="37"/>
     </row>
@@ -3820,10 +3854,10 @@
       <c r="L61" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="M61" s="246" t="s">
+      <c r="M61" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="N61" s="247"/>
+      <c r="N61" s="245"/>
       <c r="O61" s="48" t="s">
         <v>85</v>
       </c>
@@ -3844,20 +3878,20 @@
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
       <c r="H62" s="32"/>
-      <c r="I62" s="248" t="s">
+      <c r="I62" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="J62" s="249"/>
-      <c r="K62" s="252" t="s">
+      <c r="J62" s="247"/>
+      <c r="K62" s="250" t="s">
         <v>114</v>
       </c>
-      <c r="L62" s="253"/>
+      <c r="L62" s="251"/>
       <c r="M62" s="85"/>
       <c r="N62" s="196"/>
-      <c r="O62" s="240" t="s">
+      <c r="O62" s="238" t="s">
         <v>81</v>
       </c>
-      <c r="P62" s="244"/>
+      <c r="P62" s="242"/>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
     </row>
@@ -3966,16 +4000,16 @@
       <c r="H66" s="32"/>
       <c r="I66" s="199"/>
       <c r="J66" s="200"/>
-      <c r="K66" s="239" t="s">
+      <c r="K66" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="L66" s="239"/>
+      <c r="L66" s="237"/>
       <c r="M66" s="201"/>
       <c r="N66" s="202"/>
-      <c r="O66" s="242" t="s">
+      <c r="O66" s="240" t="s">
         <v>122</v>
       </c>
-      <c r="P66" s="243"/>
+      <c r="P66" s="241"/>
       <c r="Q66" s="36"/>
     </row>
     <row r="67" spans="1:18" s="37" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4036,14 +4070,14 @@
       <c r="J68" s="208"/>
       <c r="K68" s="166"/>
       <c r="L68" s="167"/>
-      <c r="M68" s="240" t="s">
+      <c r="M68" s="238" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="241"/>
-      <c r="O68" s="240" t="s">
+      <c r="N68" s="239"/>
+      <c r="O68" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="P68" s="244"/>
+      <c r="P68" s="242"/>
       <c r="Q68" s="36"/>
     </row>
     <row r="69" spans="1:18" s="37" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4144,10 +4178,10 @@
       <c r="L72" s="138"/>
       <c r="M72" s="124"/>
       <c r="N72" s="125"/>
-      <c r="O72" s="250" t="s">
+      <c r="O72" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="P72" s="265"/>
+      <c r="P72" s="261"/>
       <c r="Q72" s="36"/>
     </row>
     <row r="73" spans="1:18" s="37" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4205,10 +4239,10 @@
       <c r="L74" s="213"/>
       <c r="M74" s="124"/>
       <c r="N74" s="97"/>
-      <c r="O74" s="252" t="s">
+      <c r="O74" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="P74" s="267"/>
+      <c r="P74" s="263"/>
     </row>
     <row r="75" spans="1:18" s="37" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
@@ -4305,8 +4339,10 @@
       <c r="L78" s="220"/>
       <c r="M78" s="221"/>
       <c r="N78" s="222"/>
-      <c r="O78" s="223"/>
-      <c r="P78" s="224"/>
+      <c r="O78" s="235" t="s">
+        <v>134</v>
+      </c>
+      <c r="P78" s="236"/>
       <c r="Q78" s="36"/>
     </row>
     <row r="79" spans="1:18" s="37" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4340,11 +4376,15 @@
       <c r="L79" s="159"/>
       <c r="M79" s="55"/>
       <c r="N79" s="132"/>
-      <c r="O79" s="142"/>
-      <c r="P79" s="225"/>
+      <c r="O79" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" s="109" t="s">
+        <v>96</v>
+      </c>
       <c r="Q79" s="50"/>
     </row>
-    <row r="80" spans="1:18" s="37" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" s="37" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="106" t="s">
         <v>91</v>
       </c>
@@ -4361,8 +4401,10 @@
       <c r="L80" s="154"/>
       <c r="M80" s="124"/>
       <c r="N80" s="98"/>
-      <c r="O80" s="226"/>
-      <c r="P80" s="227"/>
+      <c r="O80" s="235" t="s">
+        <v>134</v>
+      </c>
+      <c r="P80" s="236"/>
       <c r="Q80" s="36"/>
     </row>
     <row r="81" spans="1:17" s="37" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4388,12 +4430,16 @@
       <c r="J81" s="43"/>
       <c r="K81" s="158"/>
       <c r="L81" s="159"/>
-      <c r="M81" s="228"/>
+      <c r="M81" s="223"/>
       <c r="N81" s="110"/>
-      <c r="O81" s="142"/>
-      <c r="P81" s="225"/>
-    </row>
-    <row r="82" spans="1:17" s="37" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O81" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P81" s="109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="37" customFormat="1" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A82" s="106" t="s">
         <v>24</v>
       </c>
@@ -4402,20 +4448,22 @@
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
-      <c r="G82" s="229"/>
+      <c r="G82" s="224"/>
       <c r="H82" s="165"/>
       <c r="I82" s="33"/>
       <c r="J82" s="34"/>
-      <c r="K82" s="230"/>
+      <c r="K82" s="225"/>
       <c r="L82" s="76"/>
       <c r="M82" s="144"/>
       <c r="N82" s="65"/>
-      <c r="O82" s="231"/>
-      <c r="P82" s="69"/>
+      <c r="O82" s="235" t="s">
+        <v>134</v>
+      </c>
+      <c r="P82" s="236"/>
       <c r="Q82" s="36"/>
     </row>
     <row r="83" spans="1:17" s="37" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="232" t="s">
+      <c r="A83" s="226" t="s">
         <v>47</v>
       </c>
       <c r="B83" s="71"/>
@@ -4429,23 +4477,27 @@
       <c r="H83" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="I83" s="233"/>
-      <c r="J83" s="234"/>
+      <c r="I83" s="227"/>
+      <c r="J83" s="228"/>
       <c r="K83" s="183"/>
       <c r="L83" s="75"/>
       <c r="M83" s="171"/>
       <c r="N83" s="78"/>
-      <c r="O83" s="171"/>
-      <c r="P83" s="235"/>
+      <c r="O83" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" s="109" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="84" spans="1:17" s="37" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="236"/>
-      <c r="B84" s="237"/>
-      <c r="C84" s="237"/>
-      <c r="D84" s="237"/>
-      <c r="E84" s="237"/>
-      <c r="F84" s="237"/>
-      <c r="G84" s="237"/>
+      <c r="A84" s="229"/>
+      <c r="B84" s="230"/>
+      <c r="C84" s="230"/>
+      <c r="D84" s="230"/>
+      <c r="E84" s="230"/>
+      <c r="F84" s="230"/>
+      <c r="G84" s="230"/>
       <c r="H84" s="2"/>
       <c r="I84" s="5" t="s">
         <v>128</v>
@@ -4461,13 +4513,13 @@
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:17" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="236"/>
-      <c r="B85" s="237"/>
-      <c r="C85" s="237"/>
-      <c r="D85" s="237"/>
-      <c r="E85" s="237"/>
-      <c r="F85" s="237"/>
-      <c r="G85" s="237"/>
+      <c r="A85" s="229"/>
+      <c r="B85" s="230"/>
+      <c r="C85" s="230"/>
+      <c r="D85" s="230"/>
+      <c r="E85" s="230"/>
+      <c r="F85" s="230"/>
+      <c r="G85" s="230"/>
       <c r="H85" s="2"/>
       <c r="I85" s="5" t="s">
         <v>130</v>
@@ -4475,7 +4527,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="5"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="238" t="s">
+      <c r="M85" s="231" t="s">
         <v>131</v>
       </c>
       <c r="N85" s="3"/>
@@ -4509,57 +4561,60 @@
       <c r="O89" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M51:N51"/>
+  <mergeCells count="53">
     <mergeCell ref="O54:P54"/>
     <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="O62:P62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O82:P82"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="O66:P66"/>
     <mergeCell ref="O68:P68"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O74:P74"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0.35433070866141736" footer="0.51181102362204722"/>
